--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12210"/>
+    <workbookView windowWidth="21225" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -61,13 +61,13 @@
     <t>Exploring Deep Learning for Real-Time Estimation of Lithium-Ion Battery Capacity: A Proposed Method</t>
   </si>
   <si>
-    <t>Superviosr: Zhong Fan</t>
+    <t>Superviosr: Anonymous</t>
   </si>
   <si>
     <t>Start:</t>
   </si>
   <si>
-    <t>Student: Zihuan Zhang</t>
+    <t xml:space="preserve">Student:Anonymous </t>
   </si>
   <si>
     <t>Today:</t>
@@ -244,8 +244,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="177" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -508,12 +508,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -1173,16 +1173,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,10 +1332,10 @@
     <xf numFmtId="179" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,8 +1655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13732510" y="8126730"/>
-          <a:ext cx="285750" cy="287655"/>
+          <a:off x="14969490" y="7921625"/>
+          <a:ext cx="309880" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,8 +1675,8 @@
     <xdr:to>
       <xdr:col>80</xdr:col>
       <xdr:colOff>92710</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>272415</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1699,8 +1699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15059660" y="9224010"/>
-          <a:ext cx="285750" cy="287655"/>
+          <a:off x="16417290" y="8982710"/>
+          <a:ext cx="309880" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1743,8 +1743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18271490" y="10901045"/>
-          <a:ext cx="285750" cy="287655"/>
+          <a:off x="19918680" y="10593070"/>
+          <a:ext cx="309880" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,8 +1787,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8021320" y="6475730"/>
-          <a:ext cx="285750" cy="287655"/>
+          <a:off x="8739505" y="6321425"/>
+          <a:ext cx="309880" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,7 +1838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="199390" y="95250"/>
+          <a:off x="217805" y="95250"/>
           <a:ext cx="1905000" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2116,22 +2116,22 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" showRuler="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X44" sqref="X44"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.70909090909091" customWidth="1"/>
-    <col min="2" max="2" width="37.9636363636364" customWidth="1"/>
-    <col min="3" max="3" width="9.94545454545455" customWidth="1"/>
-    <col min="4" max="4" width="10.4272727272727" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.4272727272727" customWidth="1"/>
-    <col min="6" max="6" width="1.39090909090909" customWidth="1"/>
-    <col min="7" max="7" width="6.13636363636364" customWidth="1"/>
-    <col min="8" max="106" width="1.90909090909091" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.70833333333333" customWidth="1"/>
+    <col min="2" max="2" width="37.9666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.94166666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.425" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.425" customWidth="1"/>
+    <col min="6" max="6" width="1.39166666666667" customWidth="1"/>
+    <col min="7" max="7" width="6.13333333333333" customWidth="1"/>
+    <col min="8" max="106" width="1.90833333333333" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" ht="15" spans="2:7">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="7" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A7" s="28"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
@@ -3239,7 +3239,7 @@
       <c r="DA7" s="37"/>
       <c r="DB7" s="37"/>
     </row>
-    <row r="8" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="8" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
         <v>11</v>
@@ -3352,7 +3352,7 @@
       <c r="DA8" s="37"/>
       <c r="DB8" s="37"/>
     </row>
-    <row r="9" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="9" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A9" s="28"/>
       <c r="B9" s="42" t="s">
         <v>12</v>
@@ -3471,7 +3471,7 @@
       <c r="DA9" s="37"/>
       <c r="DB9" s="37"/>
     </row>
-    <row r="10" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="10" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A10" s="28"/>
       <c r="B10" s="42" t="s">
         <v>13</v>
@@ -3590,7 +3590,7 @@
       <c r="DA10" s="37"/>
       <c r="DB10" s="37"/>
     </row>
-    <row r="11" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="11" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A11" s="28"/>
       <c r="B11" s="42" t="s">
         <v>14</v>
@@ -3709,7 +3709,7 @@
       <c r="DA11" s="37"/>
       <c r="DB11" s="37"/>
     </row>
-    <row r="12" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="12" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A12" s="28"/>
       <c r="B12" s="46" t="s">
         <v>15</v>
@@ -3822,7 +3822,7 @@
       <c r="DA12" s="37"/>
       <c r="DB12" s="37"/>
     </row>
-    <row r="13" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="13" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A13" s="28"/>
       <c r="B13" s="50" t="s">
         <v>16</v>
@@ -3941,7 +3941,7 @@
       <c r="DA13" s="37"/>
       <c r="DB13" s="37"/>
     </row>
-    <row r="14" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="14" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A14" s="28"/>
       <c r="B14" s="50" t="s">
         <v>17</v>
@@ -4060,7 +4060,7 @@
       <c r="DA14" s="37"/>
       <c r="DB14" s="37"/>
     </row>
-    <row r="15" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="15" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A15" s="28"/>
       <c r="B15" s="50" t="s">
         <v>18</v>
@@ -4179,7 +4179,7 @@
       <c r="DA15" s="37"/>
       <c r="DB15" s="37"/>
     </row>
-    <row r="16" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="16" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A16" s="28"/>
       <c r="B16" s="50" t="s">
         <v>19</v>
@@ -4298,7 +4298,7 @@
       <c r="DA16" s="37"/>
       <c r="DB16" s="37"/>
     </row>
-    <row r="17" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="17" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A17" s="28"/>
       <c r="B17" s="50" t="s">
         <v>20</v>
@@ -4536,7 +4536,7 @@
       <c r="DA18" s="37"/>
       <c r="DB18" s="37"/>
     </row>
-    <row r="19" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="19" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A19" s="28"/>
       <c r="B19" s="50" t="s">
         <v>22</v>
@@ -4655,7 +4655,7 @@
       <c r="DA19" s="37"/>
       <c r="DB19" s="37"/>
     </row>
-    <row r="20" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="20" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A20" s="28"/>
       <c r="B20" s="54" t="s">
         <v>23</v>
@@ -4768,7 +4768,7 @@
       <c r="DA20" s="37"/>
       <c r="DB20" s="37"/>
     </row>
-    <row r="21" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="21" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A21" s="28"/>
       <c r="B21" s="58" t="s">
         <v>24</v>
@@ -4887,7 +4887,7 @@
       <c r="DA21" s="37"/>
       <c r="DB21" s="37"/>
     </row>
-    <row r="22" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="22" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A22" s="28"/>
       <c r="B22" s="58" t="s">
         <v>25</v>
@@ -5006,7 +5006,7 @@
       <c r="DA22" s="37"/>
       <c r="DB22" s="37"/>
     </row>
-    <row r="23" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="23" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A23" s="28"/>
       <c r="B23" s="58" t="s">
         <v>26</v>
@@ -5125,7 +5125,7 @@
       <c r="DA23" s="37"/>
       <c r="DB23" s="37"/>
     </row>
-    <row r="24" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="24" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A24" s="28"/>
       <c r="B24" s="58" t="s">
         <v>27</v>
@@ -5244,7 +5244,7 @@
       <c r="DA24" s="37"/>
       <c r="DB24" s="37"/>
     </row>
-    <row r="25" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="25" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A25" s="28"/>
       <c r="B25" s="58" t="s">
         <v>28</v>
@@ -5363,7 +5363,7 @@
       <c r="DA25" s="37"/>
       <c r="DB25" s="37"/>
     </row>
-    <row r="26" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="26" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A26" s="28"/>
       <c r="B26" s="62" t="s">
         <v>29</v>
@@ -5476,7 +5476,7 @@
       <c r="DA26" s="37"/>
       <c r="DB26" s="37"/>
     </row>
-    <row r="27" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="27" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A27" s="28"/>
       <c r="B27" s="66" t="s">
         <v>30</v>
@@ -5595,7 +5595,7 @@
       <c r="DA27" s="37"/>
       <c r="DB27" s="37"/>
     </row>
-    <row r="28" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="28" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A28" s="28"/>
       <c r="B28" s="66" t="s">
         <v>31</v>
@@ -5714,7 +5714,7 @@
       <c r="DA28" s="37"/>
       <c r="DB28" s="37"/>
     </row>
-    <row r="29" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="29" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A29" s="28"/>
       <c r="B29" s="66" t="s">
         <v>32</v>
@@ -5833,7 +5833,7 @@
       <c r="DA29" s="37"/>
       <c r="DB29" s="37"/>
     </row>
-    <row r="30" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="30" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A30" s="28"/>
       <c r="B30" s="66" t="s">
         <v>33</v>
@@ -5952,7 +5952,7 @@
       <c r="DA30" s="37"/>
       <c r="DB30" s="37"/>
     </row>
-    <row r="31" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="31" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A31" s="28"/>
       <c r="B31" s="66" t="s">
         <v>34</v>
@@ -6071,7 +6071,7 @@
       <c r="DA31" s="37"/>
       <c r="DB31" s="37"/>
     </row>
-    <row r="32" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="32" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A32" s="28"/>
       <c r="B32" s="69" t="s">
         <v>35</v>
@@ -6184,7 +6184,7 @@
       <c r="DA32" s="37"/>
       <c r="DB32" s="37"/>
     </row>
-    <row r="33" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="33" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A33" s="28"/>
       <c r="B33" s="73" t="s">
         <v>36</v>
@@ -6303,7 +6303,7 @@
       <c r="DA33" s="37"/>
       <c r="DB33" s="37"/>
     </row>
-    <row r="34" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="34" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A34" s="28"/>
       <c r="B34" s="73" t="s">
         <v>37</v>
@@ -6422,7 +6422,7 @@
       <c r="DA34" s="37"/>
       <c r="DB34" s="37"/>
     </row>
-    <row r="35" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="35" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A35" s="28"/>
       <c r="B35" s="73" t="s">
         <v>38</v>
@@ -6541,7 +6541,7 @@
       <c r="DA35" s="37"/>
       <c r="DB35" s="37"/>
     </row>
-    <row r="36" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="36" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A36" s="28"/>
       <c r="B36" s="38" t="s">
         <v>39</v>
@@ -6654,7 +6654,7 @@
       <c r="DA36" s="37"/>
       <c r="DB36" s="37"/>
     </row>
-    <row r="37" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="37" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A37" s="28"/>
       <c r="B37" s="42" t="s">
         <v>40</v>
@@ -6773,7 +6773,7 @@
       <c r="DA37" s="37"/>
       <c r="DB37" s="37"/>
     </row>
-    <row r="38" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="38" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A38" s="28"/>
       <c r="B38" s="42" t="s">
         <v>41</v>
@@ -6892,7 +6892,7 @@
       <c r="DA38" s="37"/>
       <c r="DB38" s="37"/>
     </row>
-    <row r="39" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="39" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A39" s="28"/>
       <c r="B39" s="42" t="s">
         <v>42</v>
@@ -7011,7 +7011,7 @@
       <c r="DA39" s="37"/>
       <c r="DB39" s="37"/>
     </row>
-    <row r="40" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="40" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A40" s="28"/>
       <c r="B40" s="42" t="s">
         <v>43</v>
@@ -7130,7 +7130,7 @@
       <c r="DA40" s="37"/>
       <c r="DB40" s="37"/>
     </row>
-    <row r="41" s="15" customFormat="1" ht="21.75" spans="1:106">
+    <row r="41" s="15" customFormat="1" ht="21" spans="1:106">
       <c r="A41" s="28"/>
       <c r="B41" s="42" t="s">
         <v>44</v>
@@ -7277,7 +7277,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{025826e7-d166-49bd-abb9-36e61e44b1e9}</x14:id>
+          <x14:id>{f74f1986-ead1-464d-9c2d-bb5c0dcff90a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7456,7 +7456,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10ef234f-b27f-46b3-85ed-163686e8b593}</x14:id>
+          <x14:id>{e94a68ec-54f5-4a7b-a8ec-c027c286c0eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7635,7 +7635,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55e353fb-2a00-4880-a66e-9a030ca58e56}</x14:id>
+          <x14:id>{44f9bd8b-c764-4b58-b87c-1bd0a50504f7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7814,7 +7814,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46440dd9-6c14-4cfb-9535-0ece1818ac78}</x14:id>
+          <x14:id>{6a748b37-392b-4b02-9af1-e5cfc8cbd735}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7993,7 +7993,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04f941b5-745e-419e-965c-1555306a4d9f}</x14:id>
+          <x14:id>{1617c551-2048-4b58-bbbb-3108d2f15b27}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8247,7 +8247,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{feab8ffd-da69-4faf-963b-a87d3a77bf15}</x14:id>
+          <x14:id>{2405cb0d-5323-4274-a7ac-658784884d9a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8381,7 +8381,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83194edd-817a-4e04-b68e-0b3ddc54b65f}</x14:id>
+          <x14:id>{e2184efc-c678-48df-b9fd-46f71f10ffd2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8565,7 +8565,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{025826e7-d166-49bd-abb9-36e61e44b1e9}">
+          <x14:cfRule type="dataBar" id="{f74f1986-ead1-464d-9c2d-bb5c0dcff90a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8580,7 +8580,7 @@
           <xm:sqref>C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10ef234f-b27f-46b3-85ed-163686e8b593}">
+          <x14:cfRule type="dataBar" id="{e94a68ec-54f5-4a7b-a8ec-c027c286c0eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8595,7 +8595,7 @@
           <xm:sqref>C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55e353fb-2a00-4880-a66e-9a030ca58e56}">
+          <x14:cfRule type="dataBar" id="{44f9bd8b-c764-4b58-b87c-1bd0a50504f7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8610,7 +8610,7 @@
           <xm:sqref>C23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46440dd9-6c14-4cfb-9535-0ece1818ac78}">
+          <x14:cfRule type="dataBar" id="{6a748b37-392b-4b02-9af1-e5cfc8cbd735}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8625,7 +8625,7 @@
           <xm:sqref>C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04f941b5-745e-419e-965c-1555306a4d9f}">
+          <x14:cfRule type="dataBar" id="{1617c551-2048-4b58-bbbb-3108d2f15b27}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8640,7 +8640,7 @@
           <xm:sqref>C40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{feab8ffd-da69-4faf-963b-a87d3a77bf15}">
+          <x14:cfRule type="dataBar" id="{2405cb0d-5323-4274-a7ac-658784884d9a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8655,7 +8655,7 @@
           <xm:sqref>C7:C17 C24:C35 C20:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83194edd-817a-4e04-b68e-0b3ddc54b65f}">
+          <x14:cfRule type="dataBar" id="{e2184efc-c678-48df-b9fd-46f71f10ffd2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8684,17 +8684,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="2.85454545454545" style="4" customWidth="1"/>
-    <col min="2" max="2" width="87.1363636363636" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.13636363636364" style="4"/>
+    <col min="1" max="1" width="2.85833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="87.1333333333333" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.13333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="2:2">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15" spans="2:3">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="2:3">
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
@@ -8719,12 +8719,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="56" spans="2:2">
+    <row r="7" ht="54" spans="2:2">
       <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" ht="14" spans="2:2">
+    <row r="8" ht="13.5" spans="2:2">
       <c r="B8" s="12"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="25.5" spans="2:2">
@@ -8732,26 +8732,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="56" spans="2:2">
+    <row r="10" ht="54" spans="2:2">
       <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="14" spans="2:2">
+    <row r="11" ht="14.25" spans="2:2">
       <c r="B11" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="14" spans="2:2">
+    <row r="12" ht="13.5" spans="2:2">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" ht="14" spans="2:2">
+    <row r="13" ht="14.25" spans="2:2">
       <c r="B13" s="14" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How This Gantt Chart Was Created")</f>
         <v>► Watch How This Gantt Chart Was Created</v>
       </c>
     </row>
-    <row r="14" ht="14" spans="2:2">
+    <row r="14" ht="13.5" spans="2:2">
       <c r="B14" s="12"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="25.5" spans="2:2">
@@ -8759,17 +8759,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="2:2">
+    <row r="16" ht="27" spans="2:2">
       <c r="B16" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="14" spans="2:2">
+    <row r="17" ht="14.25" spans="2:2">
       <c r="B17" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" ht="14" spans="2:2">
+    <row r="18" ht="13.5" spans="2:2">
       <c r="B18" s="12"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="25.5" spans="2:2">
@@ -8777,15 +8777,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="56" spans="2:2">
+    <row r="20" ht="54" spans="2:2">
       <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="14" spans="2:2">
+    <row r="21" ht="13.5" spans="2:2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" ht="70" spans="2:2">
+    <row r="22" ht="67.5" spans="2:2">
       <c r="B22" s="11" t="s">
         <v>58</v>
       </c>
